--- a/logfc_Analysis/logfc_218_HC/meta_218gc_t2.xlsx
+++ b/logfc_Analysis/logfc_218_HC/meta_218gc_t2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_218_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4A5DD9-75FF-4540-9673-C8F3B52257B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2B10A-8DA2-401D-AE91-11606B19FD41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{DB3CFDC9-B429-4C98-A19D-ADB5E8589B53}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{DB3CFDC9-B429-4C98-A19D-ADB5E8589B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="235">
   <si>
     <t>TAIR</t>
   </si>
@@ -712,6 +712,42 @@
   </si>
   <si>
     <t>GO:0000003, GO:0000228, GO:0005622, GO:0005634, GO:0005694, GO:0006139, GO:0006259, GO:0006310, GO:0006807, GO:0007049, GO:0007126, GO:0008152, GO:0009987, GO:0043226, GO:0044238, GO:0044464</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1075,15 +1111,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2E020-42ED-4835-8A5C-D3F4F2C7CFD1}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,19 +1130,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1117,19 +1156,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839520</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1140,19 +1182,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>839419</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1163,19 +1208,22 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>837791</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1186,19 +1234,22 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>837958</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1209,19 +1260,22 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>838792</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1232,19 +1286,22 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>841164</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1255,19 +1312,22 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>841472</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1278,19 +1338,22 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>844020</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1301,19 +1364,22 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>814675</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1324,19 +1390,22 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>815211</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1347,19 +1416,22 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>815962</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -1370,19 +1442,22 @@
         <v>69</v>
       </c>
       <c r="D13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>817874</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1393,19 +1468,22 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>818331</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1416,19 +1494,22 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>818594</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1439,19 +1520,22 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>819069</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -1462,19 +1546,22 @@
         <v>91</v>
       </c>
       <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>821081</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1485,19 +1572,22 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>819959</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -1508,19 +1598,22 @@
         <v>99</v>
       </c>
       <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>820132</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>101</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1531,19 +1624,22 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
         <v>105</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>821415</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>106</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -1554,19 +1650,22 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>821534</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>111</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -1577,19 +1676,22 @@
         <v>115</v>
       </c>
       <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
         <v>116</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>823749</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>117</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -1600,19 +1702,22 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" t="s">
         <v>122</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>823935</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>123</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -1623,19 +1728,22 @@
         <v>127</v>
       </c>
       <c r="D24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" t="s">
         <v>128</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>824294</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>129</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1646,19 +1754,22 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>824529</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -1669,19 +1780,22 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" t="s">
         <v>138</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>828005</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -1692,19 +1806,22 @@
         <v>142</v>
       </c>
       <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
         <v>143</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>827368</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>144</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -1715,19 +1832,22 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" t="s">
         <v>148</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>828060</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>149</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -1738,19 +1858,22 @@
         <v>74</v>
       </c>
       <c r="D29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" t="s">
         <v>153</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>827512</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>154</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -1761,19 +1884,22 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" t="s">
         <v>157</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>828972</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>158</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -1784,19 +1910,22 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>829815</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>162</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -1807,19 +1936,22 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="s">
         <v>165</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>831817</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>166</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -1830,19 +1962,22 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" t="s">
         <v>170</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>831809</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>171</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -1853,16 +1988,19 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" t="s">
         <v>175</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>831112</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -1873,19 +2011,22 @@
         <v>179</v>
       </c>
       <c r="D35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" t="s">
         <v>180</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>831171</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>181</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -1896,19 +2037,22 @@
         <v>185</v>
       </c>
       <c r="D36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" t="s">
         <v>186</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>831197</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>187</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -1919,19 +2063,22 @@
         <v>191</v>
       </c>
       <c r="D37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" t="s">
         <v>192</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>833946</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>193</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -1942,19 +2089,22 @@
         <v>196</v>
       </c>
       <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" t="s">
         <v>197</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>833947</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>198</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -1965,19 +2115,22 @@
         <v>202</v>
       </c>
       <c r="D39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
         <v>203</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>834706</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -1988,19 +2141,22 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s">
         <v>206</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>835046</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>207</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -2011,19 +2167,22 @@
         <v>211</v>
       </c>
       <c r="D41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" t="s">
         <v>212</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>835217</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>215</v>
       </c>
@@ -2034,19 +2193,22 @@
         <v>217</v>
       </c>
       <c r="D42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" t="s">
         <v>218</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>835918</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>219</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -2057,15 +2219,18 @@
         <v>222</v>
       </c>
       <c r="D43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" t="s">
         <v>223</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>836733</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>224</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>225</v>
       </c>
     </row>
